--- a/similarities/split_global/harmonic_similarity_timestamps_259.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_259.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,686 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>schubert-winterreise_213</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:02.580000', '0:00:07.080000')]</t>
+          <t>('0:01:14.800000', '0:01:21.060000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:00.680000', '0:00:02.980000')]</t>
+          <t>('0:00:42.940000', '0:00:51.080000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=2.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=74.8</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>isophonics_261</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G/3', 'C', 'G']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:01.480000', '0:01:04.320000')]</t>
+          <t>('0:00:40.490000', '0:00:47.860000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:02:16.070000', '0:02:25.120000')]</t>
+          <t>('0:00:13.079206', '0:00:17.500916')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>isophonics_185</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['D:maj/F#', 'A:min/E', 'B:maj/D#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>['A', 'E:min', 'F#']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:08.540000', '0:00:14.080000')]</t>
+          <t>('0:01:09.640000', '0:01:12.080000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:13.120000', '0:00:19.960000')]</t>
+          <t>('0:00:33.686916', '0:00:42.951678')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=69.64</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-185#t=33.686916</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['A#:7', 'D#:maj', 'D#:7', 'G#:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['Bb:7', 'Eb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
+          <t>('0:01:20.480000', '0:01:39.360000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:22.125076', '0:00:36.625937')]</t>
+          <t>('0:00:05.650000', '0:00:08.920000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=80.48</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=5.65</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj', 'A:min/C']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:maj', 'C:maj', 'G/3', 'A:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:12.707687', '0:00:25.501882')]</t>
+          <t>('0:00:18.320000', '0:00:26.980000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+          <t>('0:00:05.146000', '0:00:12.446000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:7', 'C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:7', 'F:maj', 'C:7/A#', 'F:maj/A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:08.740000', '0:00:24.260000')]</t>
+          <t>('0:00:18.870000', '0:00:25.690000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:22.370000', '0:00:47.630000')]</t>
+          <t>('0:01:12.500000', '0:01:26.120000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=18.87</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=72.5</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_59</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_75</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Bb:dim7', 'C:min7', 'F:7']]</t>
+          <t>['A/3', 'E/5', 'A/3']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Gb:dim7', 'F:min7', 'Bb:7']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:02.670000', '0:00:04.070000')]</t>
+          <t>('0:00:14.168000', '0:00:18.573000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:35.170000', '0:00:37.550000')]</t>
+          <t>('0:00:02.500000', '0:00:26.200000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-59#t=2.67']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=14.168</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=35.17']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=2.5</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_258</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>isophonics_58</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E:min', 'A:min', 'E:min']]</t>
+          <t>['Eb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>['C', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:00.506000', '0:00:08.175000')]</t>
+          <t>('0:00:25.390000', '0:00:37.670000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:11.200000', '0:00:22.160000')]</t>
+          <t>('0:00:31.527551', '0:00:47.026870')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=0.506']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=25.39</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=11.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=31.527551</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>isophonics_282</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['Eb/5', 'Bb', 'F:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C', 'G']]</t>
+          <t>['G:maj', 'D:maj/F#', 'A:min/E']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:00.040000', '0:01:10.960000')]</t>
+          <t>('0:00:08.624535', '0:00:20.350612')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:04.514625', '0:01:32.970680')]</t>
+          <t>('0:01:02.520000', '0:01:04.940000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-282#t=8.624535</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=64.514625']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=62.52</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab', 'Db']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:56.690000', '0:02:03.070000')]</t>
+          <t>('0:00:21.940000', '0:00:27.520000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:01.206300', '0:02:07.006105')]</t>
+          <t>('0:00:01.540000', '0:00:03.580000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=21.94</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>jaah_31</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['G:7', 'C:maj', 'G:7']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#', 'D#:min/A#']]</t>
+          <t>['G:7', 'C', 'G:7']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:28.760000', '0:01:38.300000')]</t>
+          <t>('0:00:07.980000', '0:00:09.920000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:49.280000', '0:00:53.940000')]</t>
+          <t>('0:00:06.040000', '0:00:15.040000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=88.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=7.98</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=49.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=6.04</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:02.020000', '0:00:10.620000')]</t>
+          <t>('0:00:39.020000', '0:00:43.960000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:29.100000', '0:00:45.980000')]</t>
+          <t>('0:00:34.860000', '0:00:39.700000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=39.02</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=29.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=34.86</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:43.060000', '0:01:03.280000')]</t>
+          <t>('0:04:43.300000', '0:04:50.060000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:00.220000', '0:00:07.720000')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=43.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>isophonics_128</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['C', 'F', 'C', 'F']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.440395', '0:00:07.142059')]</t>
+          <t>('0:02:07.600000', '0:02:13.420000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:23.480000')]</t>
+          <t>('0:00:10.634761', '0:00:19.597664')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-223#t=0.440395']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=1.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>isophonics_259</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>isophonics_295</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>['A', 'D', 'E']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:7', 'G:7', 'C']]</t>
+          <t>['C/5', 'F/3', 'G/3']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:13.880000', '0:00:16.430000')]</t>
+          <t>('0:00:47.187000', '0:00:57.707000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:44.660000', '0:00:52.390000')]</t>
+          <t>('0:02:15.371234', '0:02:16.905420')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=13.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=47.187</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=44.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=135.371234</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
